--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BING\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>组员</t>
   </si>
@@ -31,9 +36,6 @@
   </si>
   <si>
     <t>总结：</t>
-  </si>
-  <si>
-    <t>总结：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -82,13 +84,25 @@
   </si>
   <si>
     <t>利用bootstrap框架，完成编写后台管理主界面-pc前端编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：bootstrap很好用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,7 +286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,27 +498,27 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.25" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="69.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -516,49 +530,53 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,49 +590,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -628,35 +646,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -683,7 +701,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -697,7 +715,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BING\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beens\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CCBE60-8480-40B9-82BC-85C127214758}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>组员</t>
   </si>
@@ -67,42 +68,70 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>修改完善Android端数据接收代码-Android前端编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉bootstrap框架，实现后台管理主界面整体布局-pc前端编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉bootstrap框架，初步编写后台管理主界面，初步实现自适应-pc前端编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：bootstrap很好用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>实现错误页面返回-后台编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>修改完善Android端数据接收代码-Android前端编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉bootstrap框架，实现后台管理主界面整体布局-pc前端编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉bootstrap框架，初步编写后台管理主界面，初步实现自适应-pc前端编码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>利用bootstrap框架，完成编写后台管理主界面-pc前端编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>日期：2018.10.22 第八周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用jqury编写管理主界面的ajax请求-pc前端编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>已完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：bootstrap很好用</t>
+    <t>日期：2018.10.24 第八周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用jqury.validate完善表单验证-pc前端编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完善编辑软件servlet代码-Android前端编码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,7 +201,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -182,13 +211,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -284,6 +316,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -319,6 +368,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,11 +560,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -509,12 +575,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -535,7 +601,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>17</v>
@@ -550,31 +616,31 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -595,9 +661,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -605,32 +673,34 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -651,9 +721,11 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -661,27 +733,149 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A23:D24"/>
     <mergeCell ref="A17:D18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:D7"/>
@@ -696,7 +890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -710,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beens\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CCBE60-8480-40B9-82BC-85C127214758}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>组员</t>
   </si>
@@ -125,13 +119,29 @@
   </si>
   <si>
     <t>修改完善编辑软件servlet代码-Android前端编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.25 第八周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端结合测试-Android测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -283,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -316,26 +326,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,23 +361,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,21 +536,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="69.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="69.25" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -582,7 +558,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -596,7 +572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -608,7 +584,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -620,7 +596,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -628,13 +604,13 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -642,7 +618,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -668,7 +644,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -680,7 +656,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -688,13 +664,13 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -702,7 +678,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -728,7 +704,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -740,7 +716,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
@@ -748,13 +724,13 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -762,7 +738,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -788,7 +764,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -796,11 +772,11 @@
         <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
@@ -808,13 +784,13 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -822,7 +798,7 @@
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,27 +812,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="3">
+        <v>0.8</v>
+      </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -864,24 +844,82 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A23:D24"/>
     <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -890,12 +928,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -904,12 +942,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
   <si>
     <t>组员</t>
   </si>
@@ -130,11 +130,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>前后端结合测试-Android测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>已完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>前后端结合测试-Android测试</t>
+    <t>日期：2018.10.29 第九周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习python，熟悉语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习python，熟悉语法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="A35" sqref="A35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -832,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2"/>
     </row>
@@ -879,7 +891,9 @@
       <c r="B33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
@@ -887,9 +901,11 @@
         <v>10</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="3"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -906,8 +922,66 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:D42"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A35:D36"/>
     <mergeCell ref="A1:D1"/>

--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>组员</t>
   </si>
@@ -147,6 +147,14 @@
   </si>
   <si>
     <t>学习python，熟悉语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.31 第九周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：看书60页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -549,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -951,7 +959,9 @@
       <c r="B39" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="3">
+        <v>0.2</v>
+      </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -961,12 +971,14 @@
       <c r="B40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3">
+        <v>0.2</v>
+      </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -978,8 +990,66 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
     </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A47:D48"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A41:D42"/>
     <mergeCell ref="A31:D31"/>

--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
   <si>
     <t>组员</t>
   </si>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>总结：看书60页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：看书90页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1019,7 +1023,9 @@
       <c r="B45" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="3">
+        <v>0.3</v>
+      </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -1029,12 +1035,14 @@
       <c r="B46" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3">
+        <v>0.3</v>
+      </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1046,24 +1054,82 @@
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
     </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A47:D48"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A41:D42"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:D18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>组员</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>总结：看书90页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：看书100页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.01 第九周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.5 第十周周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1056,7 +1068,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1083,7 +1095,9 @@
       <c r="B51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="3">
+        <v>0.42</v>
+      </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -1093,12 +1107,14 @@
       <c r="B52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3">
+        <v>0.42</v>
+      </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1110,20 +1126,78 @@
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A53:D54"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A47:D48"/>
     <mergeCell ref="A37:D37"/>

--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
   <si>
     <t>组员</t>
   </si>
@@ -171,6 +171,14 @@
   </si>
   <si>
     <t>日期：2018.11.5 第十周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：看书130页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.7 第十周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -573,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1155,7 +1163,9 @@
       <c r="B57" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3">
+        <v>0.54</v>
+      </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
@@ -1165,12 +1175,14 @@
       <c r="B58" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3">
+        <v>0.54</v>
+      </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1182,8 +1194,70 @@
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
+    <mergeCell ref="A65:D66"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A61:D61"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A59:D60"/>
     <mergeCell ref="A17:D18"/>
@@ -1200,10 +1274,6 @@
     <mergeCell ref="A23:D24"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A47:D48"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A35:D36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
   <si>
     <t>组员</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>日期：2018.11.7 第十周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：看书140页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.7 第十一周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -268,11 +280,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -641,18 +653,18 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
@@ -701,26 +713,26 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -761,26 +773,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -821,26 +833,26 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -881,26 +893,26 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -941,26 +953,26 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1001,26 +1013,26 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -1061,26 +1073,26 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -1121,26 +1133,26 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
@@ -1181,26 +1193,26 @@
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
@@ -1223,7 +1235,9 @@
       <c r="B63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3">
+        <v>0.6</v>
+      </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
@@ -1233,25 +1247,96 @@
       <c r="B64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3">
+        <v>0.6</v>
+      </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="A65" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A65:D66"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A41:D42"/>
@@ -1260,19 +1345,8 @@
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A53:D54"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A43:D43"/>
     <mergeCell ref="A47:D48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
   <si>
     <t>组员</t>
   </si>
@@ -186,11 +186,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2018.11.7 第十一周周一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
+    <t>总结：看书160页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.12 第十一周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.14 第十一周周三</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1268,7 +1272,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1295,7 +1299,9 @@
       <c r="B69" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3">
+        <v>0.67</v>
+      </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
@@ -1305,12 +1311,14 @@
       <c r="B70" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3">
+        <v>0.67</v>
+      </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -1322,8 +1330,79 @@
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
     </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A17:D18"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A71:D72"/>
     <mergeCell ref="A25:D25"/>
@@ -1331,23 +1410,10 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A23:D24"/>
     <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A65:D66"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A41:D42"/>
     <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="A47:D48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
   <si>
     <t>组员</t>
   </si>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t>日期：2018.11.14 第十一周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：看书180页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +604,7 @@
   <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="A77" sqref="A77:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1359,7 +1363,9 @@
       <c r="B75" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3">
+        <v>0.75</v>
+      </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
@@ -1369,12 +1375,14 @@
       <c r="B76" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="3">
+        <v>0.75</v>
+      </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -1388,18 +1396,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="A47:D48"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A77:D78"/>
     <mergeCell ref="A17:D18"/>
@@ -1414,6 +1410,18 @@
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A41:D42"/>
     <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="A47:D48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
   <si>
     <t>组员</t>
   </si>
@@ -199,6 +199,22 @@
   </si>
   <si>
     <t>总结：看书180页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.15 第十一周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：看书190页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.19 第十二周周一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -288,11 +304,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -601,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:D78"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -661,18 +677,18 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
@@ -721,26 +737,26 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -781,26 +797,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -841,26 +857,26 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
@@ -901,26 +917,26 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -961,26 +977,26 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -1021,26 +1037,26 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -1081,26 +1097,26 @@
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -1141,26 +1157,26 @@
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
@@ -1201,26 +1217,26 @@
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
@@ -1261,26 +1277,26 @@
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
@@ -1321,26 +1337,26 @@
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -1381,47 +1397,167 @@
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A85" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A89" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A77:D78"/>
+  <mergeCells count="30">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A71:D72"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A29:D30"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A23:D24"/>
     <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A65:D66"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A89:D90"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A59:D60"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A71:D72"/>
+    <mergeCell ref="A65:D66"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第14组/14项目计划表.xlsx
+++ b/第14组/14项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="53">
   <si>
     <t>组员</t>
   </si>
@@ -214,7 +214,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>总结：</t>
+    <t>总结：完善《外星人入侵》</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.21 第十二周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.11.26 第十三周周一</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -617,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1499,7 +1507,9 @@
       <c r="B87" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3">
+        <v>0.8</v>
+      </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
@@ -1509,7 +1519,9 @@
       <c r="B88" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3">
+        <v>0.8</v>
+      </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
@@ -1526,27 +1538,132 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
     </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A91" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A95" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A97" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A101" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="A47:D48"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A29:D30"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A41:D42"/>
+  <mergeCells count="34">
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A95:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A101:D102"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="A83:D84"/>
     <mergeCell ref="A85:D85"/>
@@ -1558,6 +1675,25 @@
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A71:D72"/>
     <mergeCell ref="A65:D66"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A29:D30"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:D42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
